--- a/biology/Microbiologie/Placidiaceae/Placidiaceae.xlsx
+++ b/biology/Microbiologie/Placidiaceae/Placidiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Placidiaceae sont une famille de chromistes de l'embranchement des Bigyra, de la classe des Placididea et de l’ordre des Placidida.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Placidia, dérivé du latin placidus, « doux, calme, paisible », probablement en référence à sa différence de comportement par rapport au genre de la même famille Wobblia. En effet, d'après Moriya et al. « ce flagellé (le Placidia) diffère de Wobblia lunata en raison de son absence de mouvement oscillant »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Placidia, dérivé du latin placidus, « doux, calme, paisible », probablement en référence à sa différence de comportement par rapport au genre de la même famille Wobblia. En effet, d'après Moriya et al. « ce flagellé (le Placidia) diffère de Wobblia lunata en raison de son absence de mouvement oscillant ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Placidiaceae sont des organismes unicellulaires, biflagellés, phagotrophes, possédant une région de transition à double hélice, des poils flagellaires à deux filaments terminaux inégaux, des crêtes tubulaires dans les mitochondries. Leurs cellules se fixent au substrat ou glissent avec la partie distale (proche de l'extrémité) du flagelle postérieur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Placidiaceae sont des organismes unicellulaires, biflagellés, phagotrophes, possédant une région de transition à double hélice, des poils flagellaires à deux filaments terminaux inégaux, des crêtes tubulaires dans les mitochondries. Leurs cellules se fixent au substrat ou glissent avec la partie distale (proche de l'extrémité) du flagelle postérieur.
 </t>
         </is>
       </c>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,9 +618,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (22 septembre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (22 septembre 2022) :
 Pendulomonas S.M.Tong, 1997
 Placidia Moriya, Nakayama &amp; Inouye, 2002
 Wobblia[note 1] Moriya, Nakayama &amp; Inouye, 2000</t>
@@ -633,9 +653,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Placidiaceae Moriya, Nakayama &amp; Inouye, 2002[2],[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Placidiaceae Moriya, Nakayama &amp; Inouye, 2002,.
 </t>
         </is>
       </c>
@@ -664,7 +686,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Mayumi Moriya, Takeshi Nakayama et Isao Inouye, « A new class of the stramenopiles, Placididea Classis nova: description of Placidia cafeteriopsis gen. et sp. nov. », Protist, Elsevier, vol. 153, no 2,‎ 1er juin 2002, p. 143-156 (ISSN 1434-4610 et 1618-0941, PMID 12125756, DOI 10.1078/1434-4610-00093)</t>
         </is>
